--- a/data/trans_orig/IP16A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A06-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C04A269-17CB-41FA-9BD7-4A8283264270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C41D8FAE-E2D3-43DF-8B51-2FC3A0B18356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAE788ED-6659-4817-8FF6-DE53F491A847}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC56B5BE-17D1-4CF0-B964-E6C2B27FE114}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="181">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -103,43 +103,43 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>20,73%</t>
+    <t>19,64%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>13,99%</t>
+    <t>13,88%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>79,27%</t>
+    <t>80,36%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>86,01%</t>
+    <t>86,12%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -151,424 +151,436 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>5,86%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>5,88%</t>
+    <t>5,76%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
   </si>
 </sst>
 </file>
@@ -980,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7187290-21F6-4E80-B40D-084E742532B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B10CD0-98F4-429E-856E-29246FFB09A6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1754,7 +1766,7 @@
         <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1781,13 @@
         <v>140706</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -1784,13 +1796,13 @@
         <v>123262</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -1799,13 +1811,13 @@
         <v>263968</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1873,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1881,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA001C5-3E6C-4D9B-AC58-85D9E7D7A0B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861D8933-2686-46C9-B551-559CDD51E448}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1898,7 +1910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2142,13 +2154,13 @@
         <v>607</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2157,13 +2169,13 @@
         <v>2129</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2172,13 +2184,13 @@
         <v>2736</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,10 +2205,10 @@
         <v>22245</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2208,13 +2220,13 @@
         <v>23394</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -2223,13 +2235,13 @@
         <v>45639</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,10 +2652,10 @@
         <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2670,13 @@
         <v>188811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H17" s="7">
         <v>265</v>
@@ -2673,13 +2685,13 @@
         <v>184045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>532</v>
@@ -2688,13 +2700,13 @@
         <v>372856</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,7 +2762,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F4083B-1086-4798-B981-FCF71DA3C95C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62B6F5B-4113-43F5-97A1-FAA00A3CA54F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3037,7 +3049,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3046,13 +3058,13 @@
         <v>617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3067,7 +3079,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3097,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -3097,10 +3109,10 @@
         <v>18239</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -3112,10 +3124,10 @@
         <v>31013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3186,13 +3198,13 @@
         <v>1214</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3201,13 +3213,13 @@
         <v>524</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3216,13 +3228,13 @@
         <v>1738</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,10 +3249,10 @@
         <v>96478</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3252,10 +3264,10 @@
         <v>105386</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -3267,13 +3279,13 @@
         <v>201863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3353,13 @@
         <v>646</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3362,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3371,13 +3383,13 @@
         <v>646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,10 +3404,10 @@
         <v>37013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3410,7 +3422,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3422,10 +3434,10 @@
         <v>74783</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -3496,13 +3508,13 @@
         <v>1859</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3511,13 +3523,13 @@
         <v>1141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3526,13 +3538,13 @@
         <v>3000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3559,13 @@
         <v>146266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -3562,10 +3574,10 @@
         <v>161395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -3577,13 +3589,13 @@
         <v>307661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,7 +3651,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C41D8FAE-E2D3-43DF-8B51-2FC3A0B18356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B56BA1-6B35-4404-BF8C-500370944B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC56B5BE-17D1-4CF0-B964-E6C2B27FE114}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{ED34D130-76B7-45E4-AEA2-7C4F528F4877}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="175">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,520 +67,502 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>2,71%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
+    <t>5,3%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
     <t>2,18%</t>
   </si>
   <si>
+    <t>94,7%</t>
+  </si>
+  <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
     <t>1,63%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,65%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2016 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
   </si>
 </sst>
 </file>
@@ -992,8 +974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B10CD0-98F4-429E-856E-29246FFB09A6}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB6AB6E-F2DE-4F8F-ADE5-9106BBD69ABB}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1110,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1125,81 +1107,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1343</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>21450</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="I5" s="7">
+        <v>18915</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>40365</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1208,52 +1194,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1262,97 +1250,97 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1343</v>
+        <v>1445</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>598</v>
+        <v>1871</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>1940</v>
+        <v>3316</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7">
-        <v>18915</v>
+        <v>79262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="I8" s="7">
-        <v>21450</v>
+        <v>85798</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="N8" s="7">
-        <v>40365</v>
+        <v>165060</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,153 +1349,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1871</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1445</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>3316</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>85798</v>
+        <v>22551</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>79262</v>
+        <v>35266</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7">
-        <v>249</v>
+        <v>87</v>
       </c>
       <c r="N11" s="7">
-        <v>165060</v>
+        <v>57816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,153 +1504,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>3213</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>5256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="D14" s="7">
-        <v>35266</v>
+        <v>123262</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="I14" s="7">
-        <v>22551</v>
+        <v>139980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
-        <v>87</v>
+        <v>396</v>
       </c>
       <c r="N14" s="7">
-        <v>57816</v>
+        <v>263242</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,216 +1659,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N15" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3213</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2043</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5256</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>210</v>
-      </c>
-      <c r="D17" s="7">
-        <v>140706</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="7">
-        <v>187</v>
-      </c>
-      <c r="I17" s="7">
-        <v>123262</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="7">
-        <v>397</v>
-      </c>
-      <c r="N17" s="7">
-        <v>263968</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="A16" t="s">
         <v>72</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1893,8 +1725,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861D8933-2686-46C9-B551-559CDD51E448}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F6953A-B21B-4BFE-BE7E-0D30F0C69B40}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1910,7 +1742,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2011,88 +1843,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2129</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>607</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2736</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D5" s="7">
+        <v>23394</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22245</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="N5" s="7">
+        <v>45639</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,48 +1945,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25523</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <v>22852</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="N6" s="7">
+        <v>48375</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2151,97 +2001,97 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>607</v>
+        <v>818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1338</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="7">
-        <v>2129</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="7">
-        <v>4</v>
-      </c>
       <c r="N7" s="7">
-        <v>2736</v>
+        <v>2156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="D8" s="7">
-        <v>22245</v>
+        <v>114791</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I8" s="7">
-        <v>23394</v>
+        <v>122056</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>65</v>
+        <v>341</v>
       </c>
       <c r="N8" s="7">
-        <v>45639</v>
+        <v>236847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,153 +2100,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="D9" s="7">
-        <v>22852</v>
+        <v>115609</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="I9" s="7">
-        <v>25523</v>
+        <v>123394</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="N9" s="7">
-        <v>48375</v>
+        <v>239003</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1338</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>818</v>
+        <v>722</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2156</v>
+        <v>722</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>122056</v>
+        <v>45859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="I11" s="7">
-        <v>114791</v>
+        <v>44510</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>341</v>
+        <v>126</v>
       </c>
       <c r="N11" s="7">
-        <v>236847</v>
+        <v>90369</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,153 +2255,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7">
-        <v>123394</v>
+        <v>45859</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>115609</v>
+        <v>45232</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>344</v>
+        <v>127</v>
       </c>
       <c r="N12" s="7">
-        <v>239003</v>
+        <v>91091</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>722</v>
+        <v>2947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>2667</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>722</v>
+        <v>5614</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="D14" s="7">
-        <v>44510</v>
+        <v>184045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="I14" s="7">
-        <v>45859</v>
+        <v>188811</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
-        <v>126</v>
+        <v>532</v>
       </c>
       <c r="N14" s="7">
-        <v>90369</v>
+        <v>372856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,216 +2410,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>62</v>
+        <v>269</v>
       </c>
       <c r="D15" s="7">
-        <v>45232</v>
+        <v>186992</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="I15" s="7">
-        <v>45859</v>
+        <v>191478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>127</v>
+        <v>540</v>
       </c>
       <c r="N15" s="7">
-        <v>91091</v>
+        <v>378470</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2667</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2947</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5614</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>267</v>
-      </c>
-      <c r="D17" s="7">
-        <v>188811</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="7">
-        <v>265</v>
-      </c>
-      <c r="I17" s="7">
-        <v>184045</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17" s="7">
-        <v>532</v>
-      </c>
-      <c r="N17" s="7">
-        <v>372856</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>271</v>
-      </c>
-      <c r="D18" s="7">
-        <v>191478</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>269</v>
-      </c>
-      <c r="I18" s="7">
-        <v>186992</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>540</v>
-      </c>
-      <c r="N18" s="7">
-        <v>378470</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>74</v>
+      <c r="A16" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2782,8 +2476,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62B6F5B-4113-43F5-97A1-FAA00A3CA54F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF1543-266F-4FF4-9DB0-46B19885ED13}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2799,7 +2493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,88 +2594,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>617</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>617</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18239</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12775</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="N5" s="7">
+        <v>31013</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,147 +2696,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18856</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12775</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N6" s="7">
+        <v>31630</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>617</v>
+        <v>1214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>617</v>
+        <v>1738</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>12775</v>
+        <v>105386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="I8" s="7">
-        <v>18239</v>
+        <v>96478</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="N8" s="7">
-        <v>31013</v>
+        <v>201863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,153 +2851,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D9" s="7">
-        <v>12775</v>
+        <v>105910</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I9" s="7">
-        <v>18856</v>
+        <v>97692</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="N9" s="7">
-        <v>31630</v>
+        <v>203601</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1214</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>524</v>
+        <v>646</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1738</v>
+        <v>646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>96478</v>
+        <v>37770</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7">
+        <v>37013</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="7">
+        <v>109</v>
+      </c>
+      <c r="N11" s="7">
+        <v>74783</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I11" s="7">
-        <v>105386</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="7">
-        <v>302</v>
-      </c>
-      <c r="N11" s="7">
-        <v>201863</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,153 +3006,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>97692</v>
+        <v>37770</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>105910</v>
+        <v>37659</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="N12" s="7">
-        <v>203601</v>
+        <v>75429</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>646</v>
+        <v>1141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1859</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>646</v>
+        <v>3000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="D14" s="7">
-        <v>37013</v>
+        <v>161395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="I14" s="7">
-        <v>37770</v>
+        <v>146266</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
-        <v>109</v>
+        <v>455</v>
       </c>
       <c r="N14" s="7">
-        <v>74783</v>
+        <v>307661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,216 +3161,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="D15" s="7">
-        <v>37659</v>
+        <v>162536</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="I15" s="7">
-        <v>37770</v>
+        <v>148125</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>75429</v>
+        <v>310661</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1859</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1141</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3000</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>212</v>
-      </c>
-      <c r="D17" s="7">
-        <v>146266</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="7">
-        <v>243</v>
-      </c>
-      <c r="I17" s="7">
-        <v>161395</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>455</v>
-      </c>
-      <c r="N17" s="7">
-        <v>307661</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>148125</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>245</v>
-      </c>
-      <c r="I18" s="7">
-        <v>162536</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>460</v>
-      </c>
-      <c r="N18" s="7">
-        <v>310661</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>74</v>
+      <c r="A16" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
